--- a/Chapter02/Chapter 2 - Amortization Table.xlsx
+++ b/Chapter02/Chapter 2 - Amortization Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25209"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Packt\Chapter 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D6C6D0A-F67A-4754-8267-BEB30A6C624B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1523EC5-B472-486B-98B4-A6296D9F5A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amortization Table" sheetId="1" r:id="rId1"/>
@@ -132,29 +132,28 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -499,79 +498,78 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="8">
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <f>-PMT(B1/12,B2,B3)</f>
         <v>694.28138253058739</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>45292</v>
       </c>
       <c r="C7" s="2">
@@ -588,7 +586,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" s="1">
@@ -609,7 +607,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" s="1">
@@ -630,7 +628,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" s="1">
@@ -651,7 +649,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" s="1">
@@ -672,7 +670,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" s="1">
@@ -693,7 +691,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13">
         <v>7</v>
       </c>
       <c r="B13" s="1">
@@ -714,7 +712,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" s="1">
@@ -735,7 +733,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" s="1">
@@ -756,7 +754,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" s="1">
@@ -777,7 +775,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" s="1">
@@ -798,7 +796,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" s="1">
@@ -819,7 +817,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" s="1">
@@ -840,7 +838,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" s="1">
@@ -861,7 +859,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" s="1">
@@ -882,7 +880,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" s="1">
@@ -903,7 +901,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" s="1">
@@ -924,7 +922,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" s="1">
@@ -945,7 +943,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" s="1">
@@ -966,7 +964,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" s="1">
@@ -987,7 +985,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" s="1">
@@ -1008,7 +1006,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" s="1">
@@ -1029,7 +1027,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29">
         <v>23</v>
       </c>
       <c r="B29" s="1">
@@ -1050,7 +1048,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30">
         <v>24</v>
       </c>
       <c r="B30" s="1">
@@ -1071,7 +1069,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31">
         <v>25</v>
       </c>
       <c r="B31" s="1">
@@ -1092,7 +1090,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32">
         <v>26</v>
       </c>
       <c r="B32" s="1">
@@ -1113,7 +1111,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33">
         <v>27</v>
       </c>
       <c r="B33" s="1">
@@ -1134,7 +1132,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34">
         <v>28</v>
       </c>
       <c r="B34" s="1">
@@ -1155,7 +1153,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35">
         <v>29</v>
       </c>
       <c r="B35" s="1">
@@ -1176,7 +1174,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36">
         <v>30</v>
       </c>
       <c r="B36" s="1">
@@ -1197,7 +1195,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37">
         <v>31</v>
       </c>
       <c r="B37" s="1">
@@ -1218,7 +1216,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38">
         <v>32</v>
       </c>
       <c r="B38" s="1">
@@ -1239,7 +1237,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39">
         <v>33</v>
       </c>
       <c r="B39" s="1">
@@ -1260,7 +1258,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40">
         <v>34</v>
       </c>
       <c r="B40" s="1">
@@ -1281,7 +1279,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41">
         <v>35</v>
       </c>
       <c r="B41" s="1">
@@ -1302,7 +1300,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42">
         <v>36</v>
       </c>
       <c r="B42" s="1">
@@ -1323,7 +1321,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43">
         <v>37</v>
       </c>
       <c r="B43" s="1">
@@ -1344,7 +1342,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44">
         <v>38</v>
       </c>
       <c r="B44" s="1">
@@ -1365,7 +1363,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45">
         <v>39</v>
       </c>
       <c r="B45" s="1">
@@ -1386,7 +1384,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46">
         <v>40</v>
       </c>
       <c r="B46" s="1">
@@ -1407,7 +1405,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47">
         <v>41</v>
       </c>
       <c r="B47" s="1">
@@ -1428,7 +1426,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48">
         <v>42</v>
       </c>
       <c r="B48" s="1">
@@ -1449,7 +1447,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49">
         <v>43</v>
       </c>
       <c r="B49" s="1">
@@ -1470,7 +1468,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50">
         <v>44</v>
       </c>
       <c r="B50" s="1">
@@ -1491,7 +1489,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51">
         <v>45</v>
       </c>
       <c r="B51" s="1">
@@ -1512,7 +1510,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52">
         <v>46</v>
       </c>
       <c r="B52" s="1">
@@ -1533,7 +1531,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53">
         <v>47</v>
       </c>
       <c r="B53" s="1">
@@ -1554,7 +1552,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54">
         <v>48</v>
       </c>
       <c r="B54" s="1">

--- a/Chapter02/Chapter 2 - Amortization Table.xlsx
+++ b/Chapter02/Chapter 2 - Amortization Table.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25209"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25211"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Packt\Chapter 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1523EC5-B472-486B-98B4-A6296D9F5A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEA6963C-F676-455A-AA86-67D170F1E50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{10289ABE-CB68-41D7-8F98-B07E564FED94}"/>
   </bookViews>
   <sheets>
     <sheet name="Amortization Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="Z_8E6EEC56_79BE_479C_9FA5_1EE699910997_.wvu.PrintTitles" localSheetId="0" hidden="1">'Amortization Table'!#REF!</definedName>
-    <definedName name="Z_DE7ECF6A_3E41_4B74_BEE3_447BE6C33589_.wvu.PrintTitles" localSheetId="0" hidden="1">'Amortization Table'!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -94,17 +94,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,13 +134,7 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -150,10 +144,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -184,44 +184,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -271,9 +271,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -329,239 +329,215 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47786396-37A6-4966-A040-6620F3A45365}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="2">
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="3">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="4">
         <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="5">
         <f>-PMT(B1/12,B2,B3)</f>
         <v>694.28138253058739</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -569,18 +545,18 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>45292</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="10">
         <f>B1/12*B3</f>
         <v>131.25</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="11">
         <f>B$4-C7</f>
         <v>563.03138253058739</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="10">
         <f>B3-D7</f>
         <v>29436.968617469414</v>
       </c>
@@ -589,19 +565,19 @@
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="12">
         <f>EOMONTH(B7,0)+1</f>
         <v>45323</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="10">
         <f>E7*B$1/12</f>
         <v>128.78673770142868</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="11">
         <f>B$4-C8</f>
         <v>565.49464482915869</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="10">
         <f>E7-D8</f>
         <v>28871.473972640255</v>
       </c>
@@ -610,19 +586,19 @@
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="12">
         <f t="shared" ref="B9:B54" si="0">EOMONTH(B8,0)+1</f>
         <v>45352</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="10">
         <f t="shared" ref="C9:C54" si="1">E8*B$1/12</f>
         <v>126.31269863030111</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="11">
         <f t="shared" ref="D9:D54" si="2">B$4-C9</f>
         <v>567.96868390028624</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="10">
         <f t="shared" ref="E9:E54" si="3">E8-D9</f>
         <v>28303.505288739969</v>
       </c>
@@ -631,19 +607,19 @@
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>45383</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="10">
         <f t="shared" si="1"/>
         <v>123.82783563823735</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="11">
         <f t="shared" si="2"/>
         <v>570.45354689235</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="10">
         <f t="shared" si="3"/>
         <v>27733.051741847619</v>
       </c>
@@ -652,19 +628,19 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>45413</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="10">
         <f t="shared" si="1"/>
         <v>121.33210137058332</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="11">
         <f t="shared" si="2"/>
         <v>572.94928116000403</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="10">
         <f t="shared" si="3"/>
         <v>27160.102460687616</v>
       </c>
@@ -673,19 +649,19 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>45444</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="10">
         <f t="shared" si="1"/>
         <v>118.82544826550831</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="11">
         <f t="shared" si="2"/>
         <v>575.45593426507912</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="10">
         <f t="shared" si="3"/>
         <v>26584.646526422537</v>
       </c>
@@ -694,19 +670,19 @@
       <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>45474</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="10">
         <f t="shared" si="1"/>
         <v>116.3078285530986</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="11">
         <f t="shared" si="2"/>
         <v>577.97355397748879</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="10">
         <f t="shared" si="3"/>
         <v>26006.672972445049</v>
       </c>
@@ -715,19 +691,19 @@
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>45505</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="10">
         <f t="shared" si="1"/>
         <v>113.77919425444708</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="11">
         <f t="shared" si="2"/>
         <v>580.50218827614026</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="10">
         <f t="shared" si="3"/>
         <v>25426.170784168909</v>
       </c>
@@ -736,19 +712,19 @@
       <c r="A15">
         <v>9</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>45536</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="10">
         <f t="shared" si="1"/>
         <v>111.23949718073898</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="11">
         <f t="shared" si="2"/>
         <v>583.04188534984837</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="10">
         <f t="shared" si="3"/>
         <v>24843.128898819061</v>
       </c>
@@ -757,19 +733,19 @@
       <c r="A16">
         <v>10</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>45566</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="10">
         <f t="shared" si="1"/>
         <v>108.68868893233339</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="11">
         <f t="shared" si="2"/>
         <v>585.59269359825396</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="10">
         <f t="shared" si="3"/>
         <v>24257.536205220807</v>
       </c>
@@ -778,19 +754,19 @@
       <c r="A17">
         <v>11</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>45597</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="10">
         <f t="shared" si="1"/>
         <v>106.12672089784103</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="11">
         <f t="shared" si="2"/>
         <v>588.15466163274641</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="10">
         <f t="shared" si="3"/>
         <v>23669.381543588061</v>
       </c>
@@ -799,19 +775,19 @@
       <c r="A18">
         <v>12</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>45627</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="10">
         <f t="shared" si="1"/>
         <v>103.55354425319776</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="11">
         <f t="shared" si="2"/>
         <v>590.72783827738965</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="10">
         <f t="shared" si="3"/>
         <v>23078.653705310669</v>
       </c>
@@ -820,19 +796,19 @@
       <c r="A19">
         <v>13</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>45658</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="10">
         <f t="shared" si="1"/>
         <v>100.96910996073417</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="11">
         <f t="shared" si="2"/>
         <v>593.31227256985323</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="10">
         <f t="shared" si="3"/>
         <v>22485.341432740817</v>
       </c>
@@ -841,19 +817,19 @@
       <c r="A20">
         <v>14</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>45689</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="10">
         <f t="shared" si="1"/>
         <v>98.373368768241065</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="11">
         <f t="shared" si="2"/>
         <v>595.90801376234629</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="10">
         <f t="shared" si="3"/>
         <v>21889.433418978471</v>
       </c>
@@ -862,19 +838,19 @@
       <c r="A21">
         <v>15</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>45717</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="10">
         <f t="shared" si="1"/>
         <v>95.766271208030801</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="11">
         <f t="shared" si="2"/>
         <v>598.51511132255655</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="10">
         <f t="shared" si="3"/>
         <v>21290.918307655913</v>
       </c>
@@ -883,19 +859,19 @@
       <c r="A22">
         <v>16</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>45748</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="10">
         <f t="shared" si="1"/>
         <v>93.147767595994608</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="11">
         <f t="shared" si="2"/>
         <v>601.13361493459274</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="10">
         <f t="shared" si="3"/>
         <v>20689.784692721321</v>
       </c>
@@ -904,19 +880,19 @@
       <c r="A23">
         <v>17</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>45778</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="10">
         <f t="shared" si="1"/>
         <v>90.517808030655772</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="11">
         <f t="shared" si="2"/>
         <v>603.76357449993156</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="10">
         <f t="shared" si="3"/>
         <v>20086.02111822139</v>
       </c>
@@ -925,19 +901,19 @@
       <c r="A24">
         <v>18</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>45809</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="10">
         <f t="shared" si="1"/>
         <v>87.876342392218575</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="11">
         <f t="shared" si="2"/>
         <v>606.4050401383688</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="10">
         <f t="shared" si="3"/>
         <v>19479.616078083021</v>
       </c>
@@ -946,19 +922,19 @@
       <c r="A25">
         <v>19</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>45839</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="10">
         <f t="shared" si="1"/>
         <v>85.223320341613217</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="11">
         <f t="shared" si="2"/>
         <v>609.05806218897419</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="10">
         <f t="shared" si="3"/>
         <v>18870.558015894047</v>
       </c>
@@ -967,19 +943,19 @@
       <c r="A26">
         <v>20</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>45870</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="10">
         <f t="shared" si="1"/>
         <v>82.55869131953645</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="11">
         <f t="shared" si="2"/>
         <v>611.72269121105091</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="10">
         <f t="shared" si="3"/>
         <v>18258.835324682994</v>
       </c>
@@ -988,19 +964,19 @@
       <c r="A27">
         <v>21</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>45901</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="10">
         <f t="shared" si="1"/>
         <v>79.882404545488086</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="11">
         <f t="shared" si="2"/>
         <v>614.39897798509935</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="10">
         <f t="shared" si="3"/>
         <v>17644.436346697894</v>
       </c>
@@ -1009,19 +985,19 @@
       <c r="A28">
         <v>22</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>45931</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="10">
         <f t="shared" si="1"/>
         <v>77.194409016803277</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="11">
         <f t="shared" si="2"/>
         <v>617.08697351378407</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="10">
         <f t="shared" si="3"/>
         <v>17027.349373184108</v>
       </c>
@@ -1030,19 +1006,19 @@
       <c r="A29">
         <v>23</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>45962</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="10">
         <f t="shared" si="1"/>
         <v>74.494653507680468</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="11">
         <f t="shared" si="2"/>
         <v>619.78672902290691</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="10">
         <f t="shared" si="3"/>
         <v>16407.5626441612</v>
       </c>
@@ -1051,19 +1027,19 @@
       <c r="A30">
         <v>24</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>45992</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="10">
         <f t="shared" si="1"/>
         <v>71.783086568205249</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="11">
         <f t="shared" si="2"/>
         <v>622.49829596238214</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="10">
         <f t="shared" si="3"/>
         <v>15785.064348198819</v>
       </c>
@@ -1072,19 +1048,19 @@
       <c r="A31">
         <v>25</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>46023</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="10">
         <f t="shared" si="1"/>
         <v>69.059656523369839</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="11">
         <f t="shared" si="2"/>
         <v>625.22172600721751</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="10">
         <f t="shared" si="3"/>
         <v>15159.842622191602</v>
       </c>
@@ -1093,19 +1069,19 @@
       <c r="A32">
         <v>26</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>46054</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="10">
         <f t="shared" si="1"/>
         <v>66.324311472088255</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="11">
         <f t="shared" si="2"/>
         <v>627.9570710584992</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="10">
         <f t="shared" si="3"/>
         <v>14531.885551133102</v>
       </c>
@@ -1114,19 +1090,19 @@
       <c r="A33">
         <v>27</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>46082</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="10">
         <f t="shared" si="1"/>
         <v>63.576999286207318</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="11">
         <f t="shared" si="2"/>
         <v>630.7043832443801</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="10">
         <f t="shared" si="3"/>
         <v>13901.181167888722</v>
       </c>
@@ -1135,19 +1111,19 @@
       <c r="A34">
         <v>28</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>46113</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="10">
         <f t="shared" si="1"/>
         <v>60.817667609513158</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="11">
         <f t="shared" si="2"/>
         <v>633.46371492107426</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="10">
         <f t="shared" si="3"/>
         <v>13267.717452967649</v>
       </c>
@@ -1156,19 +1132,19 @@
       <c r="A35">
         <v>29</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>46143</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="10">
         <f t="shared" si="1"/>
         <v>58.046263856733454</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="11">
         <f t="shared" si="2"/>
         <v>636.23511867385389</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="10">
         <f t="shared" si="3"/>
         <v>12631.482334293794</v>
       </c>
@@ -1177,19 +1153,19 @@
       <c r="A36">
         <v>30</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>46174</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="10">
         <f t="shared" si="1"/>
         <v>55.262735212535347</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="11">
         <f t="shared" si="2"/>
         <v>639.01864731805199</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="10">
         <f t="shared" si="3"/>
         <v>11992.463686975741</v>
       </c>
@@ -1198,19 +1174,19 @@
       <c r="A37">
         <v>31</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>46204</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="10">
         <f t="shared" si="1"/>
         <v>52.467028630518861</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="11">
         <f t="shared" si="2"/>
         <v>641.81435390006857</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="10">
         <f t="shared" si="3"/>
         <v>11350.649333075673</v>
       </c>
@@ -1219,19 +1195,19 @@
       <c r="A38">
         <v>32</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>46235</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="10">
         <f t="shared" si="1"/>
         <v>49.659090832206068</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="11">
         <f t="shared" si="2"/>
         <v>644.62229169838133</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="10">
         <f t="shared" si="3"/>
         <v>10706.027041377292</v>
       </c>
@@ -1240,19 +1216,19 @@
       <c r="A39">
         <v>33</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>46266</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="10">
         <f t="shared" si="1"/>
         <v>46.838868306025653</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="11">
         <f t="shared" si="2"/>
         <v>647.44251422456171</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="10">
         <f t="shared" si="3"/>
         <v>10058.584527152731</v>
       </c>
@@ -1261,19 +1237,19 @@
       <c r="A40">
         <v>34</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>46296</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="10">
         <f t="shared" si="1"/>
         <v>44.006307306293195</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="11">
         <f t="shared" si="2"/>
         <v>650.27507522429414</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="10">
         <f t="shared" si="3"/>
         <v>9408.3094519284368</v>
       </c>
@@ -1282,19 +1258,19 @@
       <c r="A41">
         <v>35</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>46327</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="10">
         <f t="shared" si="1"/>
         <v>41.161353852186913</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="11">
         <f t="shared" si="2"/>
         <v>653.12002867840044</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="10">
         <f t="shared" si="3"/>
         <v>8755.1894232500363</v>
       </c>
@@ -1303,19 +1279,19 @@
       <c r="A42">
         <v>36</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>46357</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="10">
         <f t="shared" si="1"/>
         <v>38.303953726718909</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="11">
         <f t="shared" si="2"/>
         <v>655.97742880386852</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="10">
         <f t="shared" si="3"/>
         <v>8099.2119944461674</v>
       </c>
@@ -1324,19 +1300,19 @@
       <c r="A43">
         <v>37</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>46388</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="10">
         <f t="shared" si="1"/>
         <v>35.434052475701982</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="11">
         <f t="shared" si="2"/>
         <v>658.84733005488545</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="10">
         <f t="shared" si="3"/>
         <v>7440.3646643912816</v>
       </c>
@@ -1345,19 +1321,19 @@
       <c r="A44">
         <v>38</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>46419</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="10">
         <f t="shared" si="1"/>
         <v>32.551595406711854</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="11">
         <f t="shared" si="2"/>
         <v>661.72978712387555</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="10">
         <f t="shared" si="3"/>
         <v>6778.6348772674064</v>
       </c>
@@ -1366,19 +1342,19 @@
       <c r="A45">
         <v>39</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>46447</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="10">
         <f t="shared" si="1"/>
         <v>29.656527588044899</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="11">
         <f t="shared" si="2"/>
         <v>664.62485494254247</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="10">
         <f t="shared" si="3"/>
         <v>6114.0100223248637</v>
       </c>
@@ -1387,19 +1363,19 @@
       <c r="A46">
         <v>40</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>46478</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="10">
         <f t="shared" si="1"/>
         <v>26.74879384767128</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="11">
         <f t="shared" si="2"/>
         <v>667.53258868291607</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="10">
         <f t="shared" si="3"/>
         <v>5446.4774336419478</v>
       </c>
@@ -1408,19 +1384,19 @@
       <c r="A47">
         <v>41</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>46508</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="10">
         <f t="shared" si="1"/>
         <v>23.828338772183518</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="11">
         <f t="shared" si="2"/>
         <v>670.45304375840385</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="10">
         <f t="shared" si="3"/>
         <v>4776.0243898835442</v>
       </c>
@@ -1429,19 +1405,19 @@
       <c r="A48">
         <v>42</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>46539</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="10">
         <f t="shared" si="1"/>
         <v>20.895106705740506</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="11">
         <f t="shared" si="2"/>
         <v>673.38627582484685</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="10">
         <f t="shared" si="3"/>
         <v>4102.6381140586973</v>
       </c>
@@ -1450,19 +1426,19 @@
       <c r="A49">
         <v>43</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>46569</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="10">
         <f t="shared" si="1"/>
         <v>17.949041749006799</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="11">
         <f t="shared" si="2"/>
         <v>676.33234078158057</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="10">
         <f t="shared" si="3"/>
         <v>3426.3057732771167</v>
       </c>
@@ -1471,19 +1447,19 @@
       <c r="A50">
         <v>44</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>46600</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="10">
         <f t="shared" si="1"/>
         <v>14.990087758087384</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="11">
         <f t="shared" si="2"/>
         <v>679.29129477250001</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="10">
         <f t="shared" si="3"/>
         <v>2747.0144785046168</v>
       </c>
@@ -1492,19 +1468,19 @@
       <c r="A51">
         <v>45</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>46631</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="10">
         <f t="shared" si="1"/>
         <v>12.018188343457696</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="11">
         <f t="shared" si="2"/>
         <v>682.26319418712967</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="10">
         <f t="shared" si="3"/>
         <v>2064.7512843174873</v>
       </c>
@@ -1513,19 +1489,19 @@
       <c r="A52">
         <v>46</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>46661</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="10">
         <f t="shared" si="1"/>
         <v>9.0332868688890056</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="11">
         <f t="shared" si="2"/>
         <v>685.24809566169836</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="10">
         <f t="shared" si="3"/>
         <v>1379.503188655789</v>
       </c>
@@ -1534,19 +1510,19 @@
       <c r="A53">
         <v>47</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>46692</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="10">
         <f t="shared" si="1"/>
         <v>6.0353264503690767</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="11">
         <f t="shared" si="2"/>
         <v>688.2460560802183</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="10">
         <f t="shared" si="3"/>
         <v>691.25713257557072</v>
       </c>
@@ -1555,47 +1531,24 @@
       <c r="A54">
         <v>48</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>46722</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="10">
         <f t="shared" si="1"/>
         <v>3.0242499550181221</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="11">
         <f t="shared" si="2"/>
         <v>691.25713257556924</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="10">
         <f t="shared" si="3"/>
         <v>1.4779288903810084E-12</v>
       </c>
     </row>
   </sheetData>
-  <scenarios current="3" sqref="B4 B5">
-    <scenario name="503 Elm Street - 30 Year Loan" locked="1" count="3" user="Lauren">
-      <inputCells r="B1" val="0.0525" numFmtId="10"/>
-      <inputCells r="B2" val="360"/>
-      <inputCells r="B3" val="350000" numFmtId="3"/>
-    </scenario>
-    <scenario name="503 Elm Street - 15 Year Loan" locked="1" count="3" user="Lauren">
-      <inputCells r="B1" val="0.0475" numFmtId="10"/>
-      <inputCells r="B2" val="180"/>
-      <inputCells r="B3" val="350000" numFmtId="3"/>
-    </scenario>
-    <scenario name="231 Maple Street - 30 Year Loan" locked="1" count="3" user="Lauren">
-      <inputCells r="B1" val="0.0525" numFmtId="10"/>
-      <inputCells r="B2" val="360"/>
-      <inputCells r="B3" val="275000" numFmtId="3"/>
-    </scenario>
-    <scenario name="231 Maple Street - 15 Year Loan" locked="1" count="3" user="Lauren">
-      <inputCells r="B1" val="0.0475" numFmtId="10"/>
-      <inputCells r="B2" val="180"/>
-      <inputCells r="B3" val="275000" numFmtId="3"/>
-    </scenario>
-  </scenarios>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>